--- a/LNCVSoundOutputV8.xlsx
+++ b/LNCVSoundOutputV8.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Dropbox\maqueta\Arduino\Proyectos\LNCVmodulo\LNCVSoundOutputV8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dguis\Documents\GitHub\LNCVSoundOutput\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="763"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45440,7 +45440,6 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
-      <c r="D53"/>
       <c r="E53"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -45451,10 +45450,10 @@
         <v>73</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
